--- a/exports/students_export_2025-08-20_16-09-34.xlsx
+++ b/exports/students_export_2025-08-20_16-09-34.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\attendance\exports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925C3001-4833-4D17-B013-8A01C999DC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Students Export" sheetId="1" r:id="rId4"/>
+    <sheet name="Students Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
   <si>
     <t>LRN</t>
   </si>
@@ -323,7 +328,7 @@
     <t>Olivia</t>
   </si>
   <si>
-    <t>Gomez_x0009_</t>
+    <t xml:space="preserve">Gomez	</t>
   </si>
   <si>
     <t>olivia.wilson@email.com</t>
@@ -347,23 +352,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -416,23 +413,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -722,35 +733,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A10" sqref="A10:N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="true" style="0"/>
-    <col min="2" max="2" width="20" customWidth="true" style="0"/>
-    <col min="3" max="3" width="20" customWidth="true" style="0"/>
-    <col min="4" max="4" width="20" customWidth="true" style="0"/>
-    <col min="5" max="5" width="25" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12" customWidth="true" style="0"/>
-    <col min="9" max="9" width="30" customWidth="true" style="0"/>
-    <col min="10" max="10" width="25" customWidth="true" style="0"/>
-    <col min="11" max="11" width="20" customWidth="true" style="0"/>
-    <col min="12" max="12" width="15" customWidth="true" style="0"/>
-    <col min="13" max="13" width="15" customWidth="true" style="0"/>
-    <col min="14" max="14" width="15" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,8 +798,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>641902738459</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -838,8 +842,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>378209145376</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -882,8 +886,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>593201847265</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -926,8 +930,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>592841076213</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -970,8 +974,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>704193826574</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1014,8 +1018,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>127463980521</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1058,8 +1062,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>386517204963</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1102,8 +1106,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>904728163059</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1146,8 +1150,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>219847365098</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1190,8 +1194,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>850174932610</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1235,8 +1239,6 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
 </worksheet>
 </file>